--- a/data/MN_LOKI_stat.xlsx
+++ b/data/MN_LOKI_stat.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,264 +463,286 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>metridia</t>
+          <t>metridia CI-V</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.491</v>
+        <v>0.109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.662</v>
+        <v>10.56</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.136</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.082</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>calanus CI-III</t>
+          <t>metridia adult</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.023</v>
+        <v>-0.255</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.892</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>calanus &gt;CIV</t>
+          <t>calanus CI-III</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.337</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>7.676</v>
+        <v>0.023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.457</v>
+        <v>0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>calanus</t>
+          <t>calanus &gt;CIV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.228</v>
+        <v>0.337</v>
       </c>
       <c r="C5" t="n">
-        <v>9.586</v>
+        <v>7.676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.627</v>
+        <v>0.457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003</v>
+        <v>0.043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.067</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ostracoda</t>
+          <t>calanus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.11</v>
+        <v>0.228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.161</v>
+        <v>9.586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.466</v>
+        <v>0.627</v>
       </c>
       <c r="E6" t="n">
-        <v>0.038</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.049</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>chaetognatha</t>
+          <t>ostracoda</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.169</v>
+        <v>0.11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.474</v>
+        <v>0.161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.444</v>
+        <v>0.466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>0.038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>microcalanus</t>
+          <t>chaetognatha</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.016</v>
+        <v>0.169</v>
       </c>
       <c r="C8" t="n">
-        <v>1.895</v>
+        <v>0.474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.346</v>
+        <v>0.444</v>
       </c>
       <c r="E8" t="n">
-        <v>0.135</v>
+        <v>0.05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>oithona</t>
+          <t>microcalanus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388</v>
+        <v>1.895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.355</v>
+        <v>0.346</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>oncaea</t>
+          <t>oithona</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.354</v>
+        <v>0.388</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244</v>
+        <v>0.355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.299</v>
+        <v>0.125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>paraeuchaeta</t>
+          <t>oncaea</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.342</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.024</v>
+        <v>3.354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.73</v>
+        <v>0.244</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.299</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>pseudocalanus</t>
+          <t>paraeuchaeta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.148</v>
+        <v>0.342</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.384</v>
+        <v>0.024</v>
       </c>
       <c r="D12" t="n">
-        <v>0.911</v>
+        <v>0.73</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.016</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>pseudocalanus</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>themisto</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>0.639</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>0.131</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>0.457</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>0.043</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>0.293</v>
       </c>
     </row>
